--- a/donnees/donnees_assurances/Evolution_tarif_assurance_auto.xlsx
+++ b/donnees/donnees_assurances/Evolution_tarif_assurance_auto.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmessina/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi\Desktop\Projet BI\TOS_DI-20181026_1147-V7.1.1\workspace\M2_BI\donnees\donnees_assurances\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA2B16-557E-40BD-9613-EA987BED8EE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="1044" yWindow="1680" windowWidth="27756" windowHeight="14844" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolution tarif assurance auto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,54 +34,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>Nord Pas de Calais Picardie</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>Ile de France</t>
-  </si>
-  <si>
-    <t>Centre Val de Loire</t>
-  </si>
-  <si>
-    <t>Bourgogne Franche Comté</t>
-  </si>
-  <si>
-    <t>Champagne Ardenne Lorraine Alsace</t>
-  </si>
-  <si>
-    <t>Aquitaine Limousin Poitou Charentes</t>
-  </si>
-  <si>
-    <t>Midi Pyrénées Langedoc Roussillon</t>
-  </si>
-  <si>
-    <t>Auvergne Rhone Alpes</t>
-  </si>
-  <si>
-    <t>Provence Alpes Cote d'Azur</t>
-  </si>
-  <si>
-    <t>Corse</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>BRETAGNE</t>
+  </si>
+  <si>
+    <t>NORMANDIE</t>
+  </si>
+  <si>
+    <t>PAYS DE LA LOIRE</t>
+  </si>
+  <si>
+    <t>CORSE</t>
+  </si>
+  <si>
+    <t>NORD-PAS-DE-CALAIS-PICARDIE</t>
+  </si>
+  <si>
+    <t>ILE-DE-FRANCE</t>
+  </si>
+  <si>
+    <t>CENTRE-VAL DE LOIRE</t>
+  </si>
+  <si>
+    <t>BOURGOGNE-FRANCHE-COMTÉ</t>
+  </si>
+  <si>
+    <t>ALSACE-CHAMPAGNE-ARDENNE-LORRAINE</t>
+  </si>
+  <si>
+    <t>AQUITAINE-LIMOUSIN-POITOU-CHARENTES</t>
+  </si>
+  <si>
+    <t>LANGUEDOC-ROUSSILLON-MIDI-PYRÉNÉES</t>
+  </si>
+  <si>
+    <t>AUVERGNE-RHONE-ALPES</t>
+  </si>
+  <si>
+    <t>PROVENCE-ALPES-COTE D'AZUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,12 +121,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -127,6 +137,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -394,19 +407,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="1">
         <v>42522</v>
       </c>
@@ -444,9 +460,9 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>510</v>
@@ -485,9 +501,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>577</v>
@@ -526,9 +542,9 @@
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>606</v>
@@ -567,7 +583,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -608,9 +624,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>695</v>
@@ -649,9 +665,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>553</v>
@@ -690,9 +706,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>558</v>
@@ -731,9 +747,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>581</v>
@@ -772,9 +788,9 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>549</v>
@@ -813,9 +829,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>588</v>
@@ -854,9 +870,9 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>614</v>
@@ -895,9 +911,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>696</v>
@@ -936,9 +952,9 @@
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>566</v>
